--- a/LockedPower/Resources/Shablon.xlsx
+++ b/LockedPower/Resources/Shablon.xlsx
@@ -5,14 +5,14 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Александр\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programms\С# Progs\DIPLOM\LockedPower\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11610"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Расчет невыпускаемой мощности" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="26">
   <si>
     <t>Потребление</t>
   </si>
@@ -71,12 +71,6 @@
     <t>ЭС Иркутской области</t>
   </si>
   <si>
-    <t>ЭС Красноярского края и Республики Тыва (по территории Республики Тыва)</t>
-  </si>
-  <si>
-    <t>ЭС Красноярского края и Республики Тыва (по территории Красноярского края)</t>
-  </si>
-  <si>
     <t>ЭС Республики Хакасия</t>
   </si>
   <si>
@@ -94,14 +88,29 @@
   <si>
     <t>ЭС Омской области</t>
   </si>
+  <si>
+    <t>ЭС Республики Тыва</t>
+  </si>
+  <si>
+    <t>ОЭС Сибири</t>
+  </si>
+  <si>
+    <t>Восток ЭС Красноярского края</t>
+  </si>
+  <si>
+    <t>Центр ЭС Красноярского края</t>
+  </si>
+  <si>
+    <t>Дата создания отчета: 24.04.2020 22:57:46</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="168" formatCode="_-* #,##0.00&quot;р.&quot;_-;\-* #,##0.00&quot;р.&quot;_-;_-* &quot;-&quot;??&quot;р.&quot;_-;_-@_-"/>
-    <numFmt numFmtId="169" formatCode="_-* #,##0.00_р_._-;\-* #,##0.00_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00&quot;р.&quot;_-;\-* #,##0.00&quot;р.&quot;_-;_-* &quot;-&quot;??&quot;р.&quot;_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.00_р_._-;\-* #,##0.00_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
   </numFmts>
   <fonts count="40" x14ac:knownFonts="1">
     <font>
@@ -1006,7 +1015,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="169" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
@@ -1052,13 +1061,13 @@
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="37" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="168" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="54" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1284,63 +1293,69 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="4" fontId="39" fillId="55" borderId="10" applyFont="0" applyBorder="0">
       <alignment horizontal="right"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="362">
@@ -1983,10 +1998,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E134"/>
+  <dimension ref="A1:E158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
-      <selection activeCell="E122" sqref="E122"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A63" sqref="A63:B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1996,840 +2011,992 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
+      <c r="A1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="3" t="s">
+      <c r="A4" s="5"/>
+      <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="3" t="s">
+      <c r="A5" s="5"/>
+      <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="3" t="s">
+      <c r="A6" s="5"/>
+      <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="3" t="s">
+      <c r="A7" s="5"/>
+      <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="3" t="s">
+      <c r="A8" s="5"/>
+      <c r="B8" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="3" t="s">
+      <c r="A9" s="5"/>
+      <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="3" t="s">
+      <c r="A10" s="5"/>
+      <c r="B10" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="3" t="s">
+      <c r="A11" s="5"/>
+      <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="3" t="s">
+      <c r="A12" s="5"/>
+      <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3" t="s">
+      <c r="A13" s="5"/>
+      <c r="B13" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="3" t="s">
+      <c r="A14" s="5"/>
+      <c r="B14" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="3" t="s">
+      <c r="A16" s="5"/>
+      <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="3" t="s">
+      <c r="A17" s="5"/>
+      <c r="B17" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="3" t="s">
+      <c r="A18" s="5"/>
+      <c r="B18" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="3" t="s">
+      <c r="A19" s="5"/>
+      <c r="B19" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="3" t="s">
+      <c r="A20" s="5"/>
+      <c r="B20" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="3" t="s">
+      <c r="A21" s="5"/>
+      <c r="B21" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="3" t="s">
+      <c r="A22" s="5"/>
+      <c r="B22" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="3" t="s">
+      <c r="A23" s="5"/>
+      <c r="B23" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="3" t="s">
+      <c r="A24" s="5"/>
+      <c r="B24" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="3" t="s">
+      <c r="A25" s="5"/>
+      <c r="B25" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-      <c r="B26" s="3" t="s">
+      <c r="A26" s="5"/>
+      <c r="B26" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
-      <c r="B28" s="3" t="s">
+      <c r="A28" s="5"/>
+      <c r="B28" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
-      <c r="B29" s="3" t="s">
+      <c r="A29" s="5"/>
+      <c r="B29" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="2"/>
-      <c r="B30" s="3" t="s">
+      <c r="A30" s="5"/>
+      <c r="B30" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="2"/>
-      <c r="B31" s="3" t="s">
+      <c r="A31" s="5"/>
+      <c r="B31" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="2"/>
-      <c r="B32" s="3" t="s">
+      <c r="A32" s="5"/>
+      <c r="B32" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="2"/>
-      <c r="B33" s="3" t="s">
+      <c r="A33" s="5"/>
+      <c r="B33" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="2"/>
-      <c r="B34" s="3" t="s">
+      <c r="A34" s="5"/>
+      <c r="B34" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="2"/>
-      <c r="B35" s="3" t="s">
+      <c r="A35" s="5"/>
+      <c r="B35" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="2"/>
-      <c r="B36" s="3" t="s">
+      <c r="A36" s="5"/>
+      <c r="B36" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="2"/>
-      <c r="B37" s="3" t="s">
+      <c r="A37" s="5"/>
+      <c r="B37" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="2"/>
-      <c r="B38" s="3" t="s">
+      <c r="A38" s="5"/>
+      <c r="B38" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
+    <row r="39" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="3"/>
+      <c r="B40" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="3"/>
+      <c r="B41" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="3"/>
+      <c r="B42" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="3"/>
+      <c r="B43" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="3"/>
+      <c r="B44" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="3"/>
+      <c r="B45" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="3"/>
+      <c r="B46" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="3"/>
+      <c r="B47" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="3"/>
+      <c r="B48" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="3"/>
+      <c r="B49" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="3"/>
+      <c r="B50" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="3"/>
+      <c r="B52" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="3"/>
+      <c r="B53" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="3"/>
+      <c r="B54" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="3"/>
+      <c r="B55" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="3"/>
+      <c r="B56" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="3"/>
+      <c r="B57" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="3"/>
+      <c r="B58" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="3"/>
+      <c r="B59" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="3"/>
+      <c r="B60" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="3"/>
+      <c r="B61" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="3"/>
+      <c r="B62" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="5"/>
+      <c r="B64" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="5"/>
+      <c r="B65" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="5"/>
+      <c r="B66" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="5"/>
+      <c r="B67" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="5"/>
+      <c r="B68" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="5"/>
+      <c r="B69" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="5"/>
+      <c r="B70" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="5"/>
+      <c r="B71" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="5"/>
+      <c r="B72" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="5"/>
+      <c r="B73" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="5"/>
+      <c r="B74" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="5"/>
+      <c r="B76" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="5"/>
+      <c r="B77" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="5"/>
+      <c r="B78" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="5"/>
+      <c r="B79" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="5"/>
+      <c r="B80" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="5"/>
+      <c r="B81" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="5"/>
+      <c r="B82" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="5"/>
+      <c r="B83" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="5"/>
+      <c r="B84" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="5"/>
+      <c r="B85" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="5"/>
+      <c r="B86" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="5"/>
+      <c r="B88" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="5"/>
+      <c r="B89" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="5"/>
+      <c r="B90" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="5"/>
+      <c r="B91" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="5"/>
+      <c r="B92" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="5"/>
+      <c r="B93" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="5"/>
+      <c r="B94" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="5"/>
+      <c r="B95" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="5"/>
+      <c r="B96" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="5"/>
+      <c r="B97" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="5"/>
+      <c r="B98" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B99" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="2"/>
-      <c r="B40" s="3" t="s">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="5"/>
+      <c r="B100" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="2"/>
-      <c r="B41" s="3" t="s">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="5"/>
+      <c r="B101" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="2"/>
-      <c r="B42" s="3" t="s">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" s="5"/>
+      <c r="B102" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="2"/>
-      <c r="B43" s="3" t="s">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="5"/>
+      <c r="B103" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="2"/>
-      <c r="B44" s="3" t="s">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" s="5"/>
+      <c r="B104" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="2"/>
-      <c r="B45" s="3" t="s">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" s="5"/>
+      <c r="B105" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="2"/>
-      <c r="B46" s="3" t="s">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" s="5"/>
+      <c r="B106" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="2"/>
-      <c r="B47" s="3" t="s">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" s="5"/>
+      <c r="B107" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="2"/>
-      <c r="B48" s="3" t="s">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" s="5"/>
+      <c r="B108" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="2"/>
-      <c r="B49" s="3" t="s">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" s="5"/>
+      <c r="B109" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="2"/>
-      <c r="B50" s="3" t="s">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" s="5"/>
+      <c r="B110" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B51" s="3" t="s">
+    <row r="111" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B111" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="2"/>
-      <c r="B52" s="3" t="s">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" s="5"/>
+      <c r="B112" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="2"/>
-      <c r="B53" s="3" t="s">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" s="5"/>
+      <c r="B113" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="2"/>
-      <c r="B54" s="3" t="s">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" s="5"/>
+      <c r="B114" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="2"/>
-      <c r="B55" s="3" t="s">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" s="5"/>
+      <c r="B115" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="2"/>
-      <c r="B56" s="3" t="s">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" s="5"/>
+      <c r="B116" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="2"/>
-      <c r="B57" s="3" t="s">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" s="5"/>
+      <c r="B117" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="2"/>
-      <c r="B58" s="3" t="s">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" s="5"/>
+      <c r="B118" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="2"/>
-      <c r="B59" s="3" t="s">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" s="5"/>
+      <c r="B119" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="2"/>
-      <c r="B60" s="3" t="s">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" s="5"/>
+      <c r="B120" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="2"/>
-      <c r="B61" s="3" t="s">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" s="5"/>
+      <c r="B121" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="2"/>
-      <c r="B62" s="3" t="s">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" s="5"/>
+      <c r="B122" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B63" s="3" t="s">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B123" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="2"/>
-      <c r="B64" s="3" t="s">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" s="5"/>
+      <c r="B124" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="2"/>
-      <c r="B65" s="3" t="s">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" s="5"/>
+      <c r="B125" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="2"/>
-      <c r="B66" s="3" t="s">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" s="5"/>
+      <c r="B126" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="2"/>
-      <c r="B67" s="3" t="s">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" s="5"/>
+      <c r="B127" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="2"/>
-      <c r="B68" s="3" t="s">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" s="5"/>
+      <c r="B128" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="2"/>
-      <c r="B69" s="3" t="s">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" s="5"/>
+      <c r="B129" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="2"/>
-      <c r="B70" s="3" t="s">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" s="5"/>
+      <c r="B130" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="2"/>
-      <c r="B71" s="3" t="s">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" s="5"/>
+      <c r="B131" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="2"/>
-      <c r="B72" s="3" t="s">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" s="5"/>
+      <c r="B132" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="2"/>
-      <c r="B73" s="3" t="s">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" s="5"/>
+      <c r="B133" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="2"/>
-      <c r="B74" s="3" t="s">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" s="5"/>
+      <c r="B134" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B75" s="3" t="s">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B135" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="2"/>
-      <c r="B76" s="3" t="s">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" s="5"/>
+      <c r="B136" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="2"/>
-      <c r="B77" s="3" t="s">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" s="5"/>
+      <c r="B137" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="2"/>
-      <c r="B78" s="3" t="s">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" s="5"/>
+      <c r="B138" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="2"/>
-      <c r="B79" s="3" t="s">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" s="5"/>
+      <c r="B139" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="2"/>
-      <c r="B80" s="3" t="s">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" s="5"/>
+      <c r="B140" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="2"/>
-      <c r="B81" s="3" t="s">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" s="5"/>
+      <c r="B141" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="2"/>
-      <c r="B82" s="3" t="s">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" s="5"/>
+      <c r="B142" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="2"/>
-      <c r="B83" s="3" t="s">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" s="5"/>
+      <c r="B143" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="2"/>
-      <c r="B84" s="3" t="s">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" s="5"/>
+      <c r="B144" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="2"/>
-      <c r="B85" s="3" t="s">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" s="5"/>
+      <c r="B145" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="2"/>
-      <c r="B86" s="3" t="s">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" s="5"/>
+      <c r="B146" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B87" s="3" t="s">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B147" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="2"/>
-      <c r="B88" s="3" t="s">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" s="2"/>
+      <c r="B148" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="2"/>
-      <c r="B89" s="3" t="s">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" s="2"/>
+      <c r="B149" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" s="2"/>
-      <c r="B90" s="3" t="s">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" s="2"/>
+      <c r="B150" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" s="2"/>
-      <c r="B91" s="3" t="s">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" s="2"/>
+      <c r="B151" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" s="2"/>
-      <c r="B92" s="3" t="s">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" s="2"/>
+      <c r="B152" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="2"/>
-      <c r="B93" s="3" t="s">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" s="2"/>
+      <c r="B153" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" s="2"/>
-      <c r="B94" s="3" t="s">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" s="2"/>
+      <c r="B154" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" s="2"/>
-      <c r="B95" s="3" t="s">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" s="2"/>
+      <c r="B155" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" s="2"/>
-      <c r="B96" s="3" t="s">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" s="2"/>
+      <c r="B156" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" s="2"/>
-      <c r="B97" s="3" t="s">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" s="2"/>
+      <c r="B157" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" s="2"/>
-      <c r="B98" s="3" t="s">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" s="2"/>
+      <c r="B158" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B99" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" s="2"/>
-      <c r="B100" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" s="2"/>
-      <c r="B101" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" s="2"/>
-      <c r="B102" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" s="2"/>
-      <c r="B103" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" s="2"/>
-      <c r="B104" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" s="2"/>
-      <c r="B105" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" s="2"/>
-      <c r="B106" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" s="2"/>
-      <c r="B107" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" s="2"/>
-      <c r="B108" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" s="2"/>
-      <c r="B109" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" s="2"/>
-      <c r="B110" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B111" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" s="2"/>
-      <c r="B112" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113" s="2"/>
-      <c r="B113" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" s="2"/>
-      <c r="B114" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" s="2"/>
-      <c r="B115" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116" s="2"/>
-      <c r="B116" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117" s="2"/>
-      <c r="B117" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A118" s="2"/>
-      <c r="B118" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119" s="2"/>
-      <c r="B119" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120" s="2"/>
-      <c r="B120" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121" s="2"/>
-      <c r="B121" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122" s="2"/>
-      <c r="B122" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B123" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124" s="2"/>
-      <c r="B124" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A125" s="2"/>
-      <c r="B125" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A126" s="2"/>
-      <c r="B126" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127" s="2"/>
-      <c r="B127" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A128" s="2"/>
-      <c r="B128" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129" s="2"/>
-      <c r="B129" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130" s="2"/>
-      <c r="B130" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131" s="2"/>
-      <c r="B131" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132" s="2"/>
-      <c r="B132" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A133" s="2"/>
-      <c r="B133" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A134" s="2"/>
-      <c r="B134" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="A111:A122"/>
+  <mergeCells count="14">
+    <mergeCell ref="A147:A158"/>
+    <mergeCell ref="A39:A50"/>
+    <mergeCell ref="A51:A62"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:A14"/>
+    <mergeCell ref="A15:A26"/>
+    <mergeCell ref="A27:A38"/>
     <mergeCell ref="A123:A134"/>
-    <mergeCell ref="A51:A62"/>
+    <mergeCell ref="A135:A146"/>
     <mergeCell ref="A63:A74"/>
     <mergeCell ref="A75:A86"/>
     <mergeCell ref="A87:A98"/>
     <mergeCell ref="A99:A110"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A3:A14"/>
-    <mergeCell ref="A15:A26"/>
-    <mergeCell ref="A27:A38"/>
-    <mergeCell ref="A39:A50"/>
+    <mergeCell ref="A111:A122"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/LockedPower/Resources/Shablon.xlsx
+++ b/LockedPower/Resources/Shablon.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="27">
   <si>
     <t>Потребление</t>
   </si>
@@ -103,6 +103,9 @@
   <si>
     <t>Дата создания отчета: 24.04.2020 22:57:46</t>
   </si>
+  <si>
+    <t>Резерв</t>
+  </si>
 </sst>
 </file>
 
@@ -424,7 +427,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="56">
+  <fills count="57">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -717,6 +720,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="42"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1340,7 +1349,7 @@
       <alignment horizontal="right"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1356,6 +1365,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="56" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="362">
@@ -1998,10 +2010,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E158"/>
+  <dimension ref="A1:E171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A63" sqref="A63:B74"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E156" sqref="E156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2094,909 +2106,984 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="5"/>
+      <c r="B15" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
       <c r="B17" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
       <c r="B20" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="B21" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
       <c r="B22" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
       <c r="B23" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
       <c r="B24" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
       <c r="B25" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
       <c r="B26" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="5"/>
+      <c r="B27" s="1" t="s">
         <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
-      <c r="B28" s="1" t="s">
-        <v>5</v>
+      <c r="B28" s="6" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="5"/>
+      <c r="A29" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="B29" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
       <c r="B30" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="5"/>
       <c r="B31" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="5"/>
       <c r="B32" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="5"/>
       <c r="B33" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="5"/>
       <c r="B34" s="1" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
       <c r="B35" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="5"/>
       <c r="B36" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="5"/>
       <c r="B37" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="5"/>
       <c r="B38" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="5"/>
+      <c r="B39" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="5"/>
+      <c r="B40" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="5"/>
+      <c r="B41" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B42" s="1" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="3"/>
-      <c r="B40" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="3"/>
-      <c r="B41" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="3"/>
-      <c r="B42" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
       <c r="B43" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
       <c r="B44" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
       <c r="B45" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
       <c r="B46" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
       <c r="B47" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
       <c r="B48" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="3"/>
       <c r="B49" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
       <c r="B50" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="3" t="s">
-        <v>24</v>
-      </c>
+      <c r="A51" s="3"/>
       <c r="B51" s="1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
       <c r="B52" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="3"/>
       <c r="B53" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="3"/>
-      <c r="B54" s="1" t="s">
-        <v>6</v>
+      <c r="B54" s="6" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="3"/>
+      <c r="A55" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="B55" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="3"/>
       <c r="B56" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="3"/>
       <c r="B57" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="3"/>
       <c r="B58" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="3"/>
       <c r="B59" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="3"/>
       <c r="B60" s="1" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="3"/>
       <c r="B61" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="3"/>
       <c r="B62" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="3"/>
+      <c r="B63" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="3"/>
+      <c r="B64" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="3"/>
+      <c r="B65" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="3"/>
+      <c r="B66" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="5" t="s">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="3"/>
+    </row>
+    <row r="68" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B68" s="1" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="5"/>
-      <c r="B64" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="5"/>
-      <c r="B65" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="5"/>
-      <c r="B66" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="5"/>
-      <c r="B67" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="5"/>
-      <c r="B68" s="1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="5"/>
       <c r="B69" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="5"/>
       <c r="B70" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="5"/>
       <c r="B71" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="5"/>
       <c r="B72" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="5"/>
       <c r="B73" s="1" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="5"/>
       <c r="B74" s="1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="A75" s="5"/>
       <c r="B75" s="1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="5"/>
       <c r="B76" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="5"/>
       <c r="B77" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="5"/>
       <c r="B78" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="5"/>
       <c r="B79" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="5"/>
-      <c r="B80" s="1" t="s">
-        <v>1</v>
+      <c r="B80" s="6" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="5"/>
+      <c r="A81" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="B81" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="5"/>
       <c r="B82" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="5"/>
       <c r="B83" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="5"/>
       <c r="B84" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="5"/>
       <c r="B85" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="5"/>
       <c r="B86" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="A87" s="5"/>
       <c r="B87" s="1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="5"/>
       <c r="B88" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="5"/>
       <c r="B89" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="5"/>
       <c r="B90" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="5"/>
       <c r="B91" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="5"/>
       <c r="B92" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="5"/>
-      <c r="B93" s="1" t="s">
-        <v>8</v>
+      <c r="B93" s="6" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" s="5"/>
+      <c r="A94" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="B94" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="5"/>
       <c r="B95" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="5"/>
       <c r="B96" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="5"/>
       <c r="B97" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="5"/>
       <c r="B98" s="1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="A99" s="5"/>
       <c r="B99" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="5"/>
       <c r="B100" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="5"/>
       <c r="B101" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="5"/>
       <c r="B102" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="5"/>
       <c r="B103" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="5"/>
       <c r="B104" s="1" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="5"/>
       <c r="B105" s="1" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="5"/>
-      <c r="B106" s="1" t="s">
-        <v>9</v>
+      <c r="B106" s="6" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" s="5"/>
+      <c r="A107" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="B107" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="5"/>
       <c r="B108" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="5"/>
       <c r="B109" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="5"/>
       <c r="B110" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="5" t="s">
-        <v>19</v>
-      </c>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" s="5"/>
       <c r="B111" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="5"/>
       <c r="B112" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="5"/>
       <c r="B113" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="5"/>
       <c r="B114" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="5"/>
       <c r="B115" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="5"/>
       <c r="B116" s="1" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="5"/>
       <c r="B117" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="5"/>
       <c r="B118" s="1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="5"/>
-      <c r="B119" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120" s="5"/>
+      <c r="B119" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="B120" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="5"/>
       <c r="B121" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="5"/>
       <c r="B122" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123" s="5" t="s">
-        <v>18</v>
-      </c>
+      <c r="A123" s="5"/>
       <c r="B123" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="5"/>
       <c r="B124" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="5"/>
       <c r="B125" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="5"/>
       <c r="B126" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="5"/>
       <c r="B127" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="5"/>
       <c r="B128" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="5"/>
       <c r="B129" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="5"/>
       <c r="B130" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="5"/>
       <c r="B131" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="5"/>
-      <c r="B132" s="1" t="s">
-        <v>10</v>
+      <c r="B132" s="6" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A133" s="5"/>
+      <c r="A133" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="B133" s="1" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="5"/>
       <c r="B134" s="1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A135" s="5" t="s">
-        <v>20</v>
-      </c>
+      <c r="A135" s="5"/>
       <c r="B135" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="5"/>
       <c r="B136" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="5"/>
       <c r="B137" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="5"/>
       <c r="B138" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="5"/>
       <c r="B139" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="5"/>
       <c r="B140" s="1" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="5"/>
       <c r="B141" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="5"/>
       <c r="B142" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="5"/>
       <c r="B143" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="5"/>
       <c r="B144" s="1" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="5"/>
-      <c r="B145" s="1" t="s">
+      <c r="B145" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" s="5"/>
+      <c r="B147" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" s="5"/>
+      <c r="B148" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" s="5"/>
+      <c r="B149" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" s="5"/>
+      <c r="B150" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" s="5"/>
+      <c r="B151" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" s="5"/>
+      <c r="B152" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" s="5"/>
+      <c r="B153" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" s="5"/>
+      <c r="B154" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" s="5"/>
+      <c r="B155" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" s="5"/>
+      <c r="B156" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A146" s="5"/>
-      <c r="B146" s="1" t="s">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" s="5"/>
+      <c r="B157" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A147" s="2" t="s">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" s="5"/>
+      <c r="B158" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B147" s="1" t="s">
+      <c r="B159" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A148" s="2"/>
-      <c r="B148" s="1" t="s">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" s="2"/>
+      <c r="B160" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A149" s="2"/>
-      <c r="B149" s="1" t="s">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" s="2"/>
+      <c r="B161" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A150" s="2"/>
-      <c r="B150" s="1" t="s">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" s="2"/>
+      <c r="B162" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A151" s="2"/>
-      <c r="B151" s="1" t="s">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" s="2"/>
+      <c r="B163" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A152" s="2"/>
-      <c r="B152" s="1" t="s">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" s="2"/>
+      <c r="B164" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A153" s="2"/>
-      <c r="B153" s="1" t="s">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" s="2"/>
+      <c r="B165" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A154" s="2"/>
-      <c r="B154" s="1" t="s">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166" s="2"/>
+      <c r="B166" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A155" s="2"/>
-      <c r="B155" s="1" t="s">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167" s="2"/>
+      <c r="B167" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A156" s="2"/>
-      <c r="B156" s="1" t="s">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168" s="2"/>
+      <c r="B168" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A157" s="2"/>
-      <c r="B157" s="1" t="s">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169" s="2"/>
+      <c r="B169" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A158" s="2"/>
-      <c r="B158" s="1" t="s">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170" s="2"/>
+      <c r="B170" s="1" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171" s="2"/>
+      <c r="B171" s="6" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A147:A158"/>
-    <mergeCell ref="A39:A50"/>
-    <mergeCell ref="A51:A62"/>
+    <mergeCell ref="A42:A54"/>
+    <mergeCell ref="A55:A67"/>
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A3:A14"/>
-    <mergeCell ref="A15:A26"/>
-    <mergeCell ref="A27:A38"/>
-    <mergeCell ref="A123:A134"/>
-    <mergeCell ref="A135:A146"/>
-    <mergeCell ref="A63:A74"/>
-    <mergeCell ref="A75:A86"/>
-    <mergeCell ref="A87:A98"/>
-    <mergeCell ref="A99:A110"/>
-    <mergeCell ref="A111:A122"/>
+    <mergeCell ref="A3:A15"/>
+    <mergeCell ref="A16:A28"/>
+    <mergeCell ref="A29:A41"/>
+    <mergeCell ref="A133:A145"/>
+    <mergeCell ref="A146:A158"/>
+    <mergeCell ref="A68:A80"/>
+    <mergeCell ref="A81:A93"/>
+    <mergeCell ref="A94:A106"/>
+    <mergeCell ref="A107:A119"/>
+    <mergeCell ref="A120:A132"/>
+    <mergeCell ref="A159:A171"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/LockedPower/Resources/Shablon.xlsx
+++ b/LockedPower/Resources/Shablon.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="32">
   <si>
     <t>Потребление</t>
   </si>
@@ -106,6 +106,21 @@
   <si>
     <t>Резерв</t>
   </si>
+  <si>
+    <t>Бурятия - Иркутск</t>
+  </si>
+  <si>
+    <t>Камала - Красноярская на запад</t>
+  </si>
+  <si>
+    <t>Назаровское на запад</t>
+  </si>
+  <si>
+    <t>Кузбасс-Запад</t>
+  </si>
+  <si>
+    <t>Невыпускаемая мощность</t>
+  </si>
 </sst>
 </file>
 
@@ -427,7 +442,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="57">
+  <fills count="59">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -726,6 +741,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1349,24 +1376,37 @@
       <alignment horizontal="right"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="56" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="57" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="57" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="56" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="58" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2010,10 +2050,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E171"/>
+  <dimension ref="A1:E179"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E156" sqref="E156"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2023,16 +2063,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="8" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -2040,79 +2080,79 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
+      <c r="A4" s="8"/>
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
+      <c r="A5" s="8"/>
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
+      <c r="A6" s="8"/>
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
+      <c r="A7" s="8"/>
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
+      <c r="A8" s="8"/>
       <c r="B8" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
+      <c r="A9" s="8"/>
       <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
+      <c r="A10" s="8"/>
       <c r="B10" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
+      <c r="A11" s="8"/>
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
+      <c r="A12" s="8"/>
       <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
+      <c r="A13" s="8"/>
       <c r="B13" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
+      <c r="A14" s="8"/>
       <c r="B14" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="6" t="s">
+      <c r="A15" s="8"/>
+      <c r="B15" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="9" t="s">
         <v>13</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -2120,970 +2160,1020 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
+      <c r="A17" s="9"/>
       <c r="B17" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
+      <c r="A18" s="9"/>
       <c r="B18" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
+      <c r="A19" s="9"/>
       <c r="B19" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
+      <c r="A20" s="9"/>
       <c r="B20" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
+      <c r="A21" s="9"/>
       <c r="B21" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
+      <c r="A22" s="9"/>
       <c r="B22" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
+      <c r="A23" s="9"/>
       <c r="B23" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
+      <c r="A24" s="9"/>
       <c r="B24" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
+      <c r="A25" s="9"/>
       <c r="B25" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="5"/>
+      <c r="A26" s="9"/>
       <c r="B26" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="5"/>
+      <c r="A27" s="9"/>
       <c r="B27" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="5"/>
-      <c r="B28" s="6" t="s">
+      <c r="A28" s="9"/>
+      <c r="B28" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="4"/>
+      <c r="B29" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B30" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B31" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="5"/>
-      <c r="B30" s="1" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="8"/>
+      <c r="B32" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="5"/>
-      <c r="B31" s="1" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="8"/>
+      <c r="B33" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="5"/>
-      <c r="B32" s="1" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="8"/>
+      <c r="B34" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="5"/>
-      <c r="B33" s="1" t="s">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="8"/>
+      <c r="B35" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="5"/>
-      <c r="B34" s="1" t="s">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="8"/>
+      <c r="B36" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="5"/>
-      <c r="B35" s="1" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="8"/>
+      <c r="B37" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="5"/>
-      <c r="B36" s="1" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="8"/>
+      <c r="B38" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="5"/>
-      <c r="B37" s="1" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="8"/>
+      <c r="B39" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="5"/>
-      <c r="B38" s="1" t="s">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="8"/>
+      <c r="B40" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="5"/>
-      <c r="B39" s="1" t="s">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="8"/>
+      <c r="B41" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="5"/>
-      <c r="B40" s="1" t="s">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="8"/>
+      <c r="B42" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="5"/>
-      <c r="B41" s="6" t="s">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="8"/>
+      <c r="B43" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
+    <row r="44" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B44" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="3"/>
-      <c r="B43" s="1" t="s">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="9"/>
+      <c r="B45" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="3"/>
-      <c r="B44" s="1" t="s">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="9"/>
+      <c r="B46" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="3"/>
-      <c r="B45" s="1" t="s">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="9"/>
+      <c r="B47" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="3"/>
-      <c r="B46" s="1" t="s">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="9"/>
+      <c r="B48" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="3"/>
-      <c r="B47" s="1" t="s">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="9"/>
+      <c r="B49" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="3"/>
-      <c r="B48" s="1" t="s">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="9"/>
+      <c r="B50" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="3"/>
-      <c r="B49" s="1" t="s">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="9"/>
+      <c r="B51" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="3"/>
-      <c r="B50" s="1" t="s">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="9"/>
+      <c r="B52" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="3"/>
-      <c r="B51" s="1" t="s">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="9"/>
+      <c r="B53" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="3"/>
-      <c r="B52" s="1" t="s">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="9"/>
+      <c r="B54" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="3"/>
-      <c r="B53" s="1" t="s">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="9"/>
+      <c r="B55" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="3"/>
-      <c r="B54" s="6" t="s">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="9"/>
+      <c r="B56" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="3"/>
-      <c r="B56" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="3"/>
-      <c r="B57" s="1" t="s">
-        <v>3</v>
+      <c r="A57" s="4"/>
+      <c r="B57" s="6" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="3"/>
-      <c r="B58" s="1" t="s">
+      <c r="B58" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="9"/>
+      <c r="B60" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="9"/>
+      <c r="B61" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="9"/>
+      <c r="B62" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="3"/>
-      <c r="B59" s="1" t="s">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="9"/>
+      <c r="B63" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="3"/>
-      <c r="B60" s="1" t="s">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="9"/>
+      <c r="B64" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="3"/>
-      <c r="B61" s="1" t="s">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="9"/>
+      <c r="B65" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="3"/>
-      <c r="B62" s="1" t="s">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="9"/>
+      <c r="B66" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="3"/>
-      <c r="B63" s="1" t="s">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="9"/>
+      <c r="B67" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="3"/>
-      <c r="B64" s="1" t="s">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="9"/>
+      <c r="B68" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="3"/>
-      <c r="B65" s="1" t="s">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="9"/>
+      <c r="B69" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="3"/>
-      <c r="B66" s="1" t="s">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="9"/>
+      <c r="B70" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="3"/>
-    </row>
-    <row r="68" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="5" t="s">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="9"/>
+      <c r="B71" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="4"/>
+      <c r="B72" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="3"/>
+      <c r="B73" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B74" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="5"/>
-      <c r="B69" s="1" t="s">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="8"/>
+      <c r="B75" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="5"/>
-      <c r="B70" s="1" t="s">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="8"/>
+      <c r="B76" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="5"/>
-      <c r="B71" s="1" t="s">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="8"/>
+      <c r="B77" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="5"/>
-      <c r="B72" s="1" t="s">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="8"/>
+      <c r="B78" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="5"/>
-      <c r="B73" s="1" t="s">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="8"/>
+      <c r="B79" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="5"/>
-      <c r="B74" s="1" t="s">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="8"/>
+      <c r="B80" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="5"/>
-      <c r="B75" s="1" t="s">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="8"/>
+      <c r="B81" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="5"/>
-      <c r="B76" s="1" t="s">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="8"/>
+      <c r="B82" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="5"/>
-      <c r="B77" s="1" t="s">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="8"/>
+      <c r="B83" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="5"/>
-      <c r="B78" s="1" t="s">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="8"/>
+      <c r="B84" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="5"/>
-      <c r="B79" s="1" t="s">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="8"/>
+      <c r="B85" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="5"/>
-      <c r="B80" s="6" t="s">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="8"/>
+      <c r="B86" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="5" t="s">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="B87" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="5"/>
-      <c r="B82" s="1" t="s">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="9"/>
+      <c r="B88" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="5"/>
-      <c r="B83" s="1" t="s">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="9"/>
+      <c r="B89" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="5"/>
-      <c r="B84" s="1" t="s">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="9"/>
+      <c r="B90" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="5"/>
-      <c r="B85" s="1" t="s">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="9"/>
+      <c r="B91" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="5"/>
-      <c r="B86" s="1" t="s">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="9"/>
+      <c r="B92" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="5"/>
-      <c r="B87" s="1" t="s">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="9"/>
+      <c r="B93" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="5"/>
-      <c r="B88" s="1" t="s">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="9"/>
+      <c r="B94" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="5"/>
-      <c r="B89" s="1" t="s">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="9"/>
+      <c r="B95" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" s="5"/>
-      <c r="B90" s="1" t="s">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="9"/>
+      <c r="B96" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" s="5"/>
-      <c r="B91" s="1" t="s">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="9"/>
+      <c r="B97" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" s="5"/>
-      <c r="B92" s="1" t="s">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="9"/>
+      <c r="B98" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="5"/>
-      <c r="B93" s="6" t="s">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="9"/>
+      <c r="B99" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" s="5" t="s">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="4"/>
+      <c r="B100" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="3"/>
+      <c r="B101" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="B102" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" s="5"/>
-      <c r="B95" s="1" t="s">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="8"/>
+      <c r="B103" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" s="5"/>
-      <c r="B96" s="1" t="s">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" s="8"/>
+      <c r="B104" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" s="5"/>
-      <c r="B97" s="1" t="s">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" s="8"/>
+      <c r="B105" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" s="5"/>
-      <c r="B98" s="1" t="s">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" s="8"/>
+      <c r="B106" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" s="5"/>
-      <c r="B99" s="1" t="s">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" s="8"/>
+      <c r="B107" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" s="5"/>
-      <c r="B100" s="1" t="s">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" s="8"/>
+      <c r="B108" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" s="5"/>
-      <c r="B101" s="1" t="s">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" s="8"/>
+      <c r="B109" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" s="5"/>
-      <c r="B102" s="1" t="s">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" s="8"/>
+      <c r="B110" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" s="5"/>
-      <c r="B103" s="1" t="s">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" s="8"/>
+      <c r="B111" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" s="5"/>
-      <c r="B104" s="1" t="s">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" s="8"/>
+      <c r="B112" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" s="5"/>
-      <c r="B105" s="1" t="s">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" s="8"/>
+      <c r="B113" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" s="5"/>
-      <c r="B106" s="6" t="s">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" s="8"/>
+      <c r="B114" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" s="5" t="s">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B107" s="1" t="s">
+      <c r="B115" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" s="5"/>
-      <c r="B108" s="1" t="s">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" s="8"/>
+      <c r="B116" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" s="5"/>
-      <c r="B109" s="1" t="s">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" s="8"/>
+      <c r="B117" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" s="5"/>
-      <c r="B110" s="1" t="s">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" s="8"/>
+      <c r="B118" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111" s="5"/>
-      <c r="B111" s="1" t="s">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" s="8"/>
+      <c r="B119" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" s="5"/>
-      <c r="B112" s="1" t="s">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" s="8"/>
+      <c r="B120" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113" s="5"/>
-      <c r="B113" s="1" t="s">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" s="8"/>
+      <c r="B121" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" s="5"/>
-      <c r="B114" s="1" t="s">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" s="8"/>
+      <c r="B122" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" s="5"/>
-      <c r="B115" s="1" t="s">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" s="8"/>
+      <c r="B123" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116" s="5"/>
-      <c r="B116" s="1" t="s">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" s="8"/>
+      <c r="B124" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117" s="5"/>
-      <c r="B117" s="1" t="s">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" s="8"/>
+      <c r="B125" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A118" s="5"/>
-      <c r="B118" s="1" t="s">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" s="8"/>
+      <c r="B126" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119" s="5"/>
-      <c r="B119" s="6" t="s">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" s="8"/>
+      <c r="B127" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="120" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="5" t="s">
+    <row r="128" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B120" s="1" t="s">
+      <c r="B128" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121" s="5"/>
-      <c r="B121" s="1" t="s">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" s="8"/>
+      <c r="B129" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122" s="5"/>
-      <c r="B122" s="1" t="s">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" s="8"/>
+      <c r="B130" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123" s="5"/>
-      <c r="B123" s="1" t="s">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" s="8"/>
+      <c r="B131" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124" s="5"/>
-      <c r="B124" s="1" t="s">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" s="8"/>
+      <c r="B132" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A125" s="5"/>
-      <c r="B125" s="1" t="s">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" s="8"/>
+      <c r="B133" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A126" s="5"/>
-      <c r="B126" s="1" t="s">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" s="8"/>
+      <c r="B134" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127" s="5"/>
-      <c r="B127" s="1" t="s">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" s="8"/>
+      <c r="B135" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A128" s="5"/>
-      <c r="B128" s="1" t="s">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" s="8"/>
+      <c r="B136" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129" s="5"/>
-      <c r="B129" s="1" t="s">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" s="8"/>
+      <c r="B137" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130" s="5"/>
-      <c r="B130" s="1" t="s">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" s="8"/>
+      <c r="B138" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131" s="5"/>
-      <c r="B131" s="1" t="s">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" s="8"/>
+      <c r="B139" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132" s="5"/>
-      <c r="B132" s="6" t="s">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" s="8"/>
+      <c r="B140" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A133" s="5" t="s">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B133" s="1" t="s">
+      <c r="B141" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A134" s="5"/>
-      <c r="B134" s="1" t="s">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" s="8"/>
+      <c r="B142" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A135" s="5"/>
-      <c r="B135" s="1" t="s">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" s="8"/>
+      <c r="B143" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A136" s="5"/>
-      <c r="B136" s="1" t="s">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" s="8"/>
+      <c r="B144" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A137" s="5"/>
-      <c r="B137" s="1" t="s">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" s="8"/>
+      <c r="B145" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A138" s="5"/>
-      <c r="B138" s="1" t="s">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" s="8"/>
+      <c r="B146" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A139" s="5"/>
-      <c r="B139" s="1" t="s">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" s="8"/>
+      <c r="B147" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A140" s="5"/>
-      <c r="B140" s="1" t="s">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" s="8"/>
+      <c r="B148" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A141" s="5"/>
-      <c r="B141" s="1" t="s">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" s="8"/>
+      <c r="B149" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A142" s="5"/>
-      <c r="B142" s="1" t="s">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" s="8"/>
+      <c r="B150" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A143" s="5"/>
-      <c r="B143" s="1" t="s">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" s="8"/>
+      <c r="B151" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A144" s="5"/>
-      <c r="B144" s="1" t="s">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" s="8"/>
+      <c r="B152" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A145" s="5"/>
-      <c r="B145" s="6" t="s">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" s="8"/>
+      <c r="B153" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A146" s="5" t="s">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B146" s="1" t="s">
+      <c r="B154" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A147" s="5"/>
-      <c r="B147" s="1" t="s">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" s="8"/>
+      <c r="B155" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A148" s="5"/>
-      <c r="B148" s="1" t="s">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" s="8"/>
+      <c r="B156" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A149" s="5"/>
-      <c r="B149" s="1" t="s">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" s="8"/>
+      <c r="B157" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A150" s="5"/>
-      <c r="B150" s="1" t="s">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" s="8"/>
+      <c r="B158" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A151" s="5"/>
-      <c r="B151" s="1" t="s">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" s="8"/>
+      <c r="B159" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A152" s="5"/>
-      <c r="B152" s="1" t="s">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" s="8"/>
+      <c r="B160" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A153" s="5"/>
-      <c r="B153" s="1" t="s">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" s="8"/>
+      <c r="B161" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A154" s="5"/>
-      <c r="B154" s="1" t="s">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" s="8"/>
+      <c r="B162" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A155" s="5"/>
-      <c r="B155" s="1" t="s">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" s="8"/>
+      <c r="B163" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A156" s="5"/>
-      <c r="B156" s="1" t="s">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" s="8"/>
+      <c r="B164" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A157" s="5"/>
-      <c r="B157" s="1" t="s">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" s="8"/>
+      <c r="B165" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A158" s="5"/>
-      <c r="B158" s="6" t="s">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166" s="8"/>
+      <c r="B166" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A159" s="2" t="s">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B159" s="1" t="s">
+      <c r="B167" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A160" s="2"/>
-      <c r="B160" s="1" t="s">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168" s="10"/>
+      <c r="B168" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A161" s="2"/>
-      <c r="B161" s="1" t="s">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169" s="10"/>
+      <c r="B169" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A162" s="2"/>
-      <c r="B162" s="1" t="s">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170" s="10"/>
+      <c r="B170" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A163" s="2"/>
-      <c r="B163" s="1" t="s">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171" s="10"/>
+      <c r="B171" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A164" s="2"/>
-      <c r="B164" s="1" t="s">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172" s="10"/>
+      <c r="B172" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A165" s="2"/>
-      <c r="B165" s="1" t="s">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173" s="10"/>
+      <c r="B173" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A166" s="2"/>
-      <c r="B166" s="1" t="s">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174" s="10"/>
+      <c r="B174" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A167" s="2"/>
-      <c r="B167" s="1" t="s">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175" s="10"/>
+      <c r="B175" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A168" s="2"/>
-      <c r="B168" s="1" t="s">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176" s="10"/>
+      <c r="B176" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A169" s="2"/>
-      <c r="B169" s="1" t="s">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177" s="10"/>
+      <c r="B177" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A170" s="2"/>
-      <c r="B170" s="1" t="s">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178" s="10"/>
+      <c r="B178" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A171" s="2"/>
-      <c r="B171" s="6" t="s">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179" s="10"/>
+      <c r="B179" s="2" t="s">
         <v>26</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A42:A54"/>
-    <mergeCell ref="A55:A67"/>
+    <mergeCell ref="A59:A71"/>
+    <mergeCell ref="A167:A179"/>
+    <mergeCell ref="A141:A153"/>
+    <mergeCell ref="A154:A166"/>
+    <mergeCell ref="A74:A86"/>
+    <mergeCell ref="A102:A114"/>
+    <mergeCell ref="A115:A127"/>
+    <mergeCell ref="A128:A140"/>
+    <mergeCell ref="A87:A99"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A3:A15"/>
+    <mergeCell ref="A31:A43"/>
     <mergeCell ref="A16:A28"/>
-    <mergeCell ref="A29:A41"/>
-    <mergeCell ref="A133:A145"/>
-    <mergeCell ref="A146:A158"/>
-    <mergeCell ref="A68:A80"/>
-    <mergeCell ref="A81:A93"/>
-    <mergeCell ref="A94:A106"/>
-    <mergeCell ref="A107:A119"/>
-    <mergeCell ref="A120:A132"/>
-    <mergeCell ref="A159:A171"/>
+    <mergeCell ref="A44:A56"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/LockedPower/Resources/Shablon.xlsx
+++ b/LockedPower/Resources/Shablon.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="32">
   <si>
     <t>Потребление</t>
   </si>
@@ -101,9 +101,6 @@
     <t>Центр ЭС Красноярского края</t>
   </si>
   <si>
-    <t>Дата создания отчета: 24.04.2020 22:57:46</t>
-  </si>
-  <si>
     <t>Резерв</t>
   </si>
   <si>
@@ -120,6 +117,9 @@
   </si>
   <si>
     <t>Невыпускаемая мощность</t>
+  </si>
+  <si>
+    <t>Казахстан-Сибирь 1 на Урал</t>
   </si>
 </sst>
 </file>
@@ -1376,7 +1376,7 @@
       <alignment horizontal="right"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1394,8 +1394,11 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="57" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="58" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1406,8 +1409,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="58" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="362">
@@ -2050,10 +2056,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E179"/>
+  <dimension ref="A1:E181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2063,16 +2069,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
+      <c r="A1" s="13"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="12" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -2080,79 +2084,79 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
+      <c r="A4" s="12"/>
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
+      <c r="A5" s="12"/>
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
+      <c r="A6" s="12"/>
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
+      <c r="A7" s="12"/>
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
+      <c r="A8" s="12"/>
       <c r="B8" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
+      <c r="A9" s="12"/>
       <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
+      <c r="A10" s="12"/>
       <c r="B10" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
+      <c r="A11" s="12"/>
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
+      <c r="A12" s="12"/>
       <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
+      <c r="A13" s="12"/>
       <c r="B13" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
+      <c r="A14" s="12"/>
       <c r="B14" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
+      <c r="A15" s="12"/>
       <c r="B15" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -2160,90 +2164,90 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
+      <c r="A17" s="10"/>
       <c r="B17" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="9"/>
+      <c r="A18" s="10"/>
       <c r="B18" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="9"/>
+      <c r="A19" s="10"/>
       <c r="B19" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="9"/>
+      <c r="A20" s="10"/>
       <c r="B20" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="9"/>
+      <c r="A21" s="10"/>
       <c r="B21" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="9"/>
+      <c r="A22" s="10"/>
       <c r="B22" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="9"/>
+      <c r="A23" s="10"/>
       <c r="B23" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="9"/>
+      <c r="A24" s="10"/>
       <c r="B24" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="9"/>
+      <c r="A25" s="10"/>
       <c r="B25" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="9"/>
+      <c r="A26" s="10"/>
       <c r="B26" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="9"/>
+      <c r="A27" s="10"/>
       <c r="B27" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="9"/>
+      <c r="A28" s="10"/>
       <c r="B28" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B30" s="11" t="s">
-        <v>31</v>
+      <c r="B30" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="12" t="s">
         <v>14</v>
       </c>
       <c r="B31" s="1" t="s">
@@ -2251,79 +2255,79 @@
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="8"/>
+      <c r="A32" s="12"/>
       <c r="B32" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="8"/>
+      <c r="A33" s="12"/>
       <c r="B33" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="8"/>
+      <c r="A34" s="12"/>
       <c r="B34" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="8"/>
+      <c r="A35" s="12"/>
       <c r="B35" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="8"/>
+      <c r="A36" s="12"/>
       <c r="B36" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="8"/>
+      <c r="A37" s="12"/>
       <c r="B37" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="8"/>
+      <c r="A38" s="12"/>
       <c r="B38" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="8"/>
+      <c r="A39" s="12"/>
       <c r="B39" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="8"/>
+      <c r="A40" s="12"/>
       <c r="B40" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="8"/>
+      <c r="A41" s="12"/>
       <c r="B41" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="8"/>
+      <c r="A42" s="12"/>
       <c r="B42" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="8"/>
+      <c r="A43" s="12"/>
       <c r="B43" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="9" t="s">
+      <c r="A44" s="10" t="s">
         <v>23</v>
       </c>
       <c r="B44" s="1" t="s">
@@ -2331,91 +2335,91 @@
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="9"/>
+      <c r="A45" s="10"/>
       <c r="B45" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="9"/>
+      <c r="A46" s="10"/>
       <c r="B46" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="9"/>
+      <c r="A47" s="10"/>
       <c r="B47" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="9"/>
+      <c r="A48" s="10"/>
       <c r="B48" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="9"/>
+      <c r="A49" s="10"/>
       <c r="B49" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="9"/>
+      <c r="A50" s="10"/>
       <c r="B50" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="9"/>
+      <c r="A51" s="10"/>
       <c r="B51" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="9"/>
+      <c r="A52" s="10"/>
       <c r="B52" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="9"/>
+      <c r="A53" s="10"/>
       <c r="B53" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="9"/>
+      <c r="A54" s="10"/>
       <c r="B54" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="9"/>
+      <c r="A55" s="10"/>
       <c r="B55" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="9"/>
+      <c r="A56" s="10"/>
       <c r="B56" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
       <c r="B57" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="3"/>
-      <c r="B58" s="11" t="s">
-        <v>31</v>
+      <c r="B58" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="9" t="s">
+      <c r="A59" s="10" t="s">
         <v>24</v>
       </c>
       <c r="B59" s="1" t="s">
@@ -2423,91 +2427,91 @@
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="9"/>
+      <c r="A60" s="10"/>
       <c r="B60" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="9"/>
+      <c r="A61" s="10"/>
       <c r="B61" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="9"/>
+      <c r="A62" s="10"/>
       <c r="B62" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="9"/>
+      <c r="A63" s="10"/>
       <c r="B63" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="9"/>
+      <c r="A64" s="10"/>
       <c r="B64" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="9"/>
+      <c r="A65" s="10"/>
       <c r="B65" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="9"/>
+      <c r="A66" s="10"/>
       <c r="B66" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="9"/>
+      <c r="A67" s="10"/>
       <c r="B67" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="9"/>
+      <c r="A68" s="10"/>
       <c r="B68" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="9"/>
+      <c r="A69" s="10"/>
       <c r="B69" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="9"/>
+      <c r="A70" s="10"/>
       <c r="B70" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="9"/>
+      <c r="A71" s="10"/>
       <c r="B71" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="4"/>
       <c r="B72" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
-      <c r="B73" s="11" t="s">
-        <v>31</v>
+      <c r="B73" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="8" t="s">
+      <c r="A74" s="12" t="s">
         <v>21</v>
       </c>
       <c r="B74" s="1" t="s">
@@ -2515,79 +2519,79 @@
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="8"/>
+      <c r="A75" s="12"/>
       <c r="B75" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="8"/>
+      <c r="A76" s="12"/>
       <c r="B76" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="8"/>
+      <c r="A77" s="12"/>
       <c r="B77" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="8"/>
+      <c r="A78" s="12"/>
       <c r="B78" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="8"/>
+      <c r="A79" s="12"/>
       <c r="B79" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="8"/>
+      <c r="A80" s="12"/>
       <c r="B80" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="8"/>
+      <c r="A81" s="12"/>
       <c r="B81" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="8"/>
+      <c r="A82" s="12"/>
       <c r="B82" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="8"/>
+      <c r="A83" s="12"/>
       <c r="B83" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="8"/>
+      <c r="A84" s="12"/>
       <c r="B84" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="8"/>
+      <c r="A85" s="12"/>
       <c r="B85" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="8"/>
+      <c r="A86" s="12"/>
       <c r="B86" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="9" t="s">
+      <c r="A87" s="10" t="s">
         <v>17</v>
       </c>
       <c r="B87" s="1" t="s">
@@ -2595,91 +2599,91 @@
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="9"/>
+      <c r="A88" s="10"/>
       <c r="B88" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="9"/>
+      <c r="A89" s="10"/>
       <c r="B89" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" s="9"/>
+      <c r="A90" s="10"/>
       <c r="B90" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" s="9"/>
+      <c r="A91" s="10"/>
       <c r="B91" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" s="9"/>
+      <c r="A92" s="10"/>
       <c r="B92" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="9"/>
+      <c r="A93" s="10"/>
       <c r="B93" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" s="9"/>
+      <c r="A94" s="10"/>
       <c r="B94" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" s="9"/>
+      <c r="A95" s="10"/>
       <c r="B95" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" s="9"/>
+      <c r="A96" s="10"/>
       <c r="B96" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" s="9"/>
+      <c r="A97" s="10"/>
       <c r="B97" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" s="9"/>
+      <c r="A98" s="10"/>
       <c r="B98" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" s="9"/>
+      <c r="A99" s="10"/>
       <c r="B99" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="4"/>
       <c r="B100" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="3"/>
-      <c r="B101" s="11" t="s">
-        <v>31</v>
+      <c r="B101" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" s="8" t="s">
+      <c r="A102" s="12" t="s">
         <v>16</v>
       </c>
       <c r="B102" s="1" t="s">
@@ -2687,79 +2691,79 @@
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" s="8"/>
+      <c r="A103" s="12"/>
       <c r="B103" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" s="8"/>
+      <c r="A104" s="12"/>
       <c r="B104" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" s="8"/>
+      <c r="A105" s="12"/>
       <c r="B105" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" s="8"/>
+      <c r="A106" s="12"/>
       <c r="B106" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" s="8"/>
+      <c r="A107" s="12"/>
       <c r="B107" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" s="8"/>
+      <c r="A108" s="12"/>
       <c r="B108" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" s="8"/>
+      <c r="A109" s="12"/>
       <c r="B109" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" s="8"/>
+      <c r="A110" s="12"/>
       <c r="B110" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111" s="8"/>
+      <c r="A111" s="12"/>
       <c r="B111" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" s="8"/>
+      <c r="A112" s="12"/>
       <c r="B112" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113" s="8"/>
+      <c r="A113" s="12"/>
       <c r="B113" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" s="8"/>
+      <c r="A114" s="12"/>
       <c r="B114" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" s="8" t="s">
+      <c r="A115" s="12" t="s">
         <v>15</v>
       </c>
       <c r="B115" s="1" t="s">
@@ -2767,79 +2771,79 @@
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116" s="8"/>
+      <c r="A116" s="12"/>
       <c r="B116" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117" s="8"/>
+      <c r="A117" s="12"/>
       <c r="B117" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A118" s="8"/>
+      <c r="A118" s="12"/>
       <c r="B118" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119" s="8"/>
+      <c r="A119" s="12"/>
       <c r="B119" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120" s="8"/>
+      <c r="A120" s="12"/>
       <c r="B120" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121" s="8"/>
+      <c r="A121" s="12"/>
       <c r="B121" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122" s="8"/>
+      <c r="A122" s="12"/>
       <c r="B122" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123" s="8"/>
+      <c r="A123" s="12"/>
       <c r="B123" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124" s="8"/>
+      <c r="A124" s="12"/>
       <c r="B124" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A125" s="8"/>
+      <c r="A125" s="12"/>
       <c r="B125" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A126" s="8"/>
+      <c r="A126" s="12"/>
       <c r="B126" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127" s="8"/>
+      <c r="A127" s="12"/>
       <c r="B127" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="128" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="8" t="s">
+      <c r="A128" s="12" t="s">
         <v>19</v>
       </c>
       <c r="B128" s="1" t="s">
@@ -2847,79 +2851,79 @@
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129" s="8"/>
+      <c r="A129" s="12"/>
       <c r="B129" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130" s="8"/>
+      <c r="A130" s="12"/>
       <c r="B130" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131" s="8"/>
+      <c r="A131" s="12"/>
       <c r="B131" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132" s="8"/>
+      <c r="A132" s="12"/>
       <c r="B132" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A133" s="8"/>
+      <c r="A133" s="12"/>
       <c r="B133" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A134" s="8"/>
+      <c r="A134" s="12"/>
       <c r="B134" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A135" s="8"/>
+      <c r="A135" s="12"/>
       <c r="B135" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A136" s="8"/>
+      <c r="A136" s="12"/>
       <c r="B136" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A137" s="8"/>
+      <c r="A137" s="12"/>
       <c r="B137" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A138" s="8"/>
+      <c r="A138" s="12"/>
       <c r="B138" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A139" s="8"/>
+      <c r="A139" s="12"/>
       <c r="B139" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A140" s="8"/>
+      <c r="A140" s="12"/>
       <c r="B140" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A141" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="10" t="s">
         <v>18</v>
       </c>
       <c r="B141" s="1" t="s">
@@ -2927,253 +2931,265 @@
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A142" s="8"/>
+      <c r="A142" s="10"/>
       <c r="B142" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A143" s="8"/>
+      <c r="A143" s="10"/>
       <c r="B143" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A144" s="8"/>
+      <c r="A144" s="10"/>
       <c r="B144" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A145" s="8"/>
+      <c r="A145" s="10"/>
       <c r="B145" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A146" s="8"/>
+      <c r="A146" s="10"/>
       <c r="B146" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A147" s="8"/>
+      <c r="A147" s="10"/>
       <c r="B147" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A148" s="8"/>
+      <c r="A148" s="10"/>
       <c r="B148" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A149" s="8"/>
+      <c r="A149" s="10"/>
       <c r="B149" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A150" s="8"/>
+      <c r="A150" s="10"/>
       <c r="B150" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A151" s="8"/>
+      <c r="A151" s="10"/>
       <c r="B151" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A152" s="8"/>
+      <c r="A152" s="10"/>
       <c r="B152" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A153" s="8"/>
+      <c r="A153" s="10"/>
       <c r="B153" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A154" s="8" t="s">
+      <c r="A154" s="8"/>
+      <c r="B154" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" s="9"/>
+      <c r="B155" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B154" s="1" t="s">
+      <c r="B156" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A155" s="8"/>
-      <c r="B155" s="1" t="s">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" s="12"/>
+      <c r="B157" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A156" s="8"/>
-      <c r="B156" s="1" t="s">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" s="12"/>
+      <c r="B158" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A157" s="8"/>
-      <c r="B157" s="1" t="s">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" s="12"/>
+      <c r="B159" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A158" s="8"/>
-      <c r="B158" s="1" t="s">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" s="12"/>
+      <c r="B160" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A159" s="8"/>
-      <c r="B159" s="1" t="s">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" s="12"/>
+      <c r="B161" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A160" s="8"/>
-      <c r="B160" s="1" t="s">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" s="12"/>
+      <c r="B162" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A161" s="8"/>
-      <c r="B161" s="1" t="s">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" s="12"/>
+      <c r="B163" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A162" s="8"/>
-      <c r="B162" s="1" t="s">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" s="12"/>
+      <c r="B164" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A163" s="8"/>
-      <c r="B163" s="1" t="s">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" s="12"/>
+      <c r="B165" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A164" s="8"/>
-      <c r="B164" s="1" t="s">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166" s="12"/>
+      <c r="B166" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A165" s="8"/>
-      <c r="B165" s="1" t="s">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167" s="12"/>
+      <c r="B167" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A166" s="8"/>
-      <c r="B166" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A167" s="10" t="s">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168" s="12"/>
+      <c r="B168" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B167" s="1" t="s">
+      <c r="B169" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A168" s="10"/>
-      <c r="B168" s="1" t="s">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170" s="11"/>
+      <c r="B170" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A169" s="10"/>
-      <c r="B169" s="1" t="s">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171" s="11"/>
+      <c r="B171" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A170" s="10"/>
-      <c r="B170" s="1" t="s">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172" s="11"/>
+      <c r="B172" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A171" s="10"/>
-      <c r="B171" s="1" t="s">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173" s="11"/>
+      <c r="B173" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A172" s="10"/>
-      <c r="B172" s="1" t="s">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174" s="11"/>
+      <c r="B174" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A173" s="10"/>
-      <c r="B173" s="1" t="s">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175" s="11"/>
+      <c r="B175" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A174" s="10"/>
-      <c r="B174" s="1" t="s">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176" s="11"/>
+      <c r="B176" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A175" s="10"/>
-      <c r="B175" s="1" t="s">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177" s="11"/>
+      <c r="B177" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A176" s="10"/>
-      <c r="B176" s="1" t="s">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178" s="11"/>
+      <c r="B178" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A177" s="10"/>
-      <c r="B177" s="1" t="s">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179" s="11"/>
+      <c r="B179" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A178" s="10"/>
-      <c r="B178" s="1" t="s">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180" s="11"/>
+      <c r="B180" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A179" s="10"/>
-      <c r="B179" s="2" t="s">
-        <v>26</v>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181" s="11"/>
+      <c r="B181" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:A15"/>
+    <mergeCell ref="A31:A43"/>
+    <mergeCell ref="A16:A28"/>
+    <mergeCell ref="A44:A56"/>
     <mergeCell ref="A59:A71"/>
-    <mergeCell ref="A167:A179"/>
-    <mergeCell ref="A141:A153"/>
-    <mergeCell ref="A154:A166"/>
+    <mergeCell ref="A169:A181"/>
+    <mergeCell ref="A156:A168"/>
     <mergeCell ref="A74:A86"/>
     <mergeCell ref="A102:A114"/>
     <mergeCell ref="A115:A127"/>
     <mergeCell ref="A128:A140"/>
     <mergeCell ref="A87:A99"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A3:A15"/>
-    <mergeCell ref="A31:A43"/>
-    <mergeCell ref="A16:A28"/>
-    <mergeCell ref="A44:A56"/>
+    <mergeCell ref="A141:A153"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/LockedPower/Resources/Shablon.xlsx
+++ b/LockedPower/Resources/Shablon.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="33">
   <si>
     <t>Потребление</t>
   </si>
@@ -121,6 +121,9 @@
   <si>
     <t>Казахстан-Сибирь 1 на Урал</t>
   </si>
+  <si>
+    <t xml:space="preserve">Суммарный невыпускаемый резерв - </t>
+  </si>
 </sst>
 </file>
 
@@ -757,7 +760,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -1003,6 +1006,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="362">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1376,7 +1394,7 @@
       <alignment horizontal="right"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1404,15 +1422,20 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2056,10 +2079,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E181"/>
+  <dimension ref="A1:J181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2068,95 +2091,107 @@
     <col min="2" max="2" width="35.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="13"/>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="10"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="12"/>
+      <c r="F3" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="15"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="11"/>
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="11"/>
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="11"/>
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="12"/>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="11"/>
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="12"/>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="11"/>
       <c r="B8" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="11"/>
       <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="11"/>
       <c r="B10" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="11"/>
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="11"/>
       <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="12"/>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="11"/>
       <c r="B13" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="12"/>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="11"/>
       <c r="B14" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="12"/>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="11"/>
       <c r="B15" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
         <v>13</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -2164,73 +2199,73 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
+      <c r="A17" s="12"/>
       <c r="B17" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="10"/>
+      <c r="A18" s="12"/>
       <c r="B18" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
+      <c r="A19" s="12"/>
       <c r="B19" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="10"/>
+      <c r="A20" s="12"/>
       <c r="B20" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
+      <c r="A21" s="12"/>
       <c r="B21" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
+      <c r="A22" s="12"/>
       <c r="B22" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
+      <c r="A23" s="12"/>
       <c r="B23" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
+      <c r="A24" s="12"/>
       <c r="B24" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="10"/>
+      <c r="A25" s="12"/>
       <c r="B25" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="10"/>
+      <c r="A26" s="12"/>
       <c r="B26" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="10"/>
+      <c r="A27" s="12"/>
       <c r="B27" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="10"/>
+      <c r="A28" s="12"/>
       <c r="B28" s="2" t="s">
         <v>25</v>
       </c>
@@ -2247,7 +2282,7 @@
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="12" t="s">
+      <c r="A31" s="11" t="s">
         <v>14</v>
       </c>
       <c r="B31" s="1" t="s">
@@ -2255,79 +2290,79 @@
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="12"/>
+      <c r="A32" s="11"/>
       <c r="B32" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="12"/>
+      <c r="A33" s="11"/>
       <c r="B33" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="12"/>
+      <c r="A34" s="11"/>
       <c r="B34" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="12"/>
+      <c r="A35" s="11"/>
       <c r="B35" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="12"/>
+      <c r="A36" s="11"/>
       <c r="B36" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="12"/>
+      <c r="A37" s="11"/>
       <c r="B37" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="12"/>
+      <c r="A38" s="11"/>
       <c r="B38" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="12"/>
+      <c r="A39" s="11"/>
       <c r="B39" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="12"/>
+      <c r="A40" s="11"/>
       <c r="B40" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="12"/>
+      <c r="A41" s="11"/>
       <c r="B41" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="12"/>
+      <c r="A42" s="11"/>
       <c r="B42" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="12"/>
+      <c r="A43" s="11"/>
       <c r="B43" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="10" t="s">
+      <c r="A44" s="12" t="s">
         <v>23</v>
       </c>
       <c r="B44" s="1" t="s">
@@ -2335,73 +2370,73 @@
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="10"/>
+      <c r="A45" s="12"/>
       <c r="B45" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="10"/>
+      <c r="A46" s="12"/>
       <c r="B46" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="10"/>
+      <c r="A47" s="12"/>
       <c r="B47" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="10"/>
+      <c r="A48" s="12"/>
       <c r="B48" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="10"/>
+      <c r="A49" s="12"/>
       <c r="B49" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="10"/>
+      <c r="A50" s="12"/>
       <c r="B50" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="10"/>
+      <c r="A51" s="12"/>
       <c r="B51" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="10"/>
+      <c r="A52" s="12"/>
       <c r="B52" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="10"/>
+      <c r="A53" s="12"/>
       <c r="B53" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="10"/>
+      <c r="A54" s="12"/>
       <c r="B54" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="10"/>
+      <c r="A55" s="12"/>
       <c r="B55" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="10"/>
+      <c r="A56" s="12"/>
       <c r="B56" s="2" t="s">
         <v>25</v>
       </c>
@@ -2419,7 +2454,7 @@
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="10" t="s">
+      <c r="A59" s="12" t="s">
         <v>24</v>
       </c>
       <c r="B59" s="1" t="s">
@@ -2427,73 +2462,73 @@
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="10"/>
+      <c r="A60" s="12"/>
       <c r="B60" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="10"/>
+      <c r="A61" s="12"/>
       <c r="B61" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="10"/>
+      <c r="A62" s="12"/>
       <c r="B62" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="10"/>
+      <c r="A63" s="12"/>
       <c r="B63" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="10"/>
+      <c r="A64" s="12"/>
       <c r="B64" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="10"/>
+      <c r="A65" s="12"/>
       <c r="B65" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="10"/>
+      <c r="A66" s="12"/>
       <c r="B66" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="10"/>
+      <c r="A67" s="12"/>
       <c r="B67" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="10"/>
+      <c r="A68" s="12"/>
       <c r="B68" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="10"/>
+      <c r="A69" s="12"/>
       <c r="B69" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="10"/>
+      <c r="A70" s="12"/>
       <c r="B70" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="10"/>
+      <c r="A71" s="12"/>
       <c r="B71" s="2" t="s">
         <v>25</v>
       </c>
@@ -2511,7 +2546,7 @@
       </c>
     </row>
     <row r="74" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="12" t="s">
+      <c r="A74" s="11" t="s">
         <v>21</v>
       </c>
       <c r="B74" s="1" t="s">
@@ -2519,79 +2554,79 @@
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="12"/>
+      <c r="A75" s="11"/>
       <c r="B75" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="12"/>
+      <c r="A76" s="11"/>
       <c r="B76" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="12"/>
+      <c r="A77" s="11"/>
       <c r="B77" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="12"/>
+      <c r="A78" s="11"/>
       <c r="B78" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="12"/>
+      <c r="A79" s="11"/>
       <c r="B79" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="12"/>
+      <c r="A80" s="11"/>
       <c r="B80" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="12"/>
+      <c r="A81" s="11"/>
       <c r="B81" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="12"/>
+      <c r="A82" s="11"/>
       <c r="B82" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="12"/>
+      <c r="A83" s="11"/>
       <c r="B83" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="12"/>
+      <c r="A84" s="11"/>
       <c r="B84" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="12"/>
+      <c r="A85" s="11"/>
       <c r="B85" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="12"/>
+      <c r="A86" s="11"/>
       <c r="B86" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="10" t="s">
+      <c r="A87" s="12" t="s">
         <v>17</v>
       </c>
       <c r="B87" s="1" t="s">
@@ -2599,73 +2634,73 @@
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="10"/>
+      <c r="A88" s="12"/>
       <c r="B88" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="10"/>
+      <c r="A89" s="12"/>
       <c r="B89" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" s="10"/>
+      <c r="A90" s="12"/>
       <c r="B90" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" s="10"/>
+      <c r="A91" s="12"/>
       <c r="B91" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" s="10"/>
+      <c r="A92" s="12"/>
       <c r="B92" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="10"/>
+      <c r="A93" s="12"/>
       <c r="B93" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" s="10"/>
+      <c r="A94" s="12"/>
       <c r="B94" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" s="10"/>
+      <c r="A95" s="12"/>
       <c r="B95" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" s="10"/>
+      <c r="A96" s="12"/>
       <c r="B96" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" s="10"/>
+      <c r="A97" s="12"/>
       <c r="B97" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" s="10"/>
+      <c r="A98" s="12"/>
       <c r="B98" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" s="10"/>
+      <c r="A99" s="12"/>
       <c r="B99" s="2" t="s">
         <v>25</v>
       </c>
@@ -2683,7 +2718,7 @@
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" s="12" t="s">
+      <c r="A102" s="11" t="s">
         <v>16</v>
       </c>
       <c r="B102" s="1" t="s">
@@ -2691,79 +2726,79 @@
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" s="12"/>
+      <c r="A103" s="11"/>
       <c r="B103" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" s="12"/>
+      <c r="A104" s="11"/>
       <c r="B104" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" s="12"/>
+      <c r="A105" s="11"/>
       <c r="B105" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" s="12"/>
+      <c r="A106" s="11"/>
       <c r="B106" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" s="12"/>
+      <c r="A107" s="11"/>
       <c r="B107" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" s="12"/>
+      <c r="A108" s="11"/>
       <c r="B108" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" s="12"/>
+      <c r="A109" s="11"/>
       <c r="B109" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" s="12"/>
+      <c r="A110" s="11"/>
       <c r="B110" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111" s="12"/>
+      <c r="A111" s="11"/>
       <c r="B111" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" s="12"/>
+      <c r="A112" s="11"/>
       <c r="B112" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113" s="12"/>
+      <c r="A113" s="11"/>
       <c r="B113" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" s="12"/>
+      <c r="A114" s="11"/>
       <c r="B114" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" s="12" t="s">
+      <c r="A115" s="11" t="s">
         <v>15</v>
       </c>
       <c r="B115" s="1" t="s">
@@ -2771,79 +2806,79 @@
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116" s="12"/>
+      <c r="A116" s="11"/>
       <c r="B116" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117" s="12"/>
+      <c r="A117" s="11"/>
       <c r="B117" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A118" s="12"/>
+      <c r="A118" s="11"/>
       <c r="B118" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119" s="12"/>
+      <c r="A119" s="11"/>
       <c r="B119" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120" s="12"/>
+      <c r="A120" s="11"/>
       <c r="B120" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121" s="12"/>
+      <c r="A121" s="11"/>
       <c r="B121" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122" s="12"/>
+      <c r="A122" s="11"/>
       <c r="B122" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123" s="12"/>
+      <c r="A123" s="11"/>
       <c r="B123" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124" s="12"/>
+      <c r="A124" s="11"/>
       <c r="B124" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A125" s="12"/>
+      <c r="A125" s="11"/>
       <c r="B125" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A126" s="12"/>
+      <c r="A126" s="11"/>
       <c r="B126" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127" s="12"/>
+      <c r="A127" s="11"/>
       <c r="B127" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="128" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="12" t="s">
+      <c r="A128" s="11" t="s">
         <v>19</v>
       </c>
       <c r="B128" s="1" t="s">
@@ -2851,79 +2886,79 @@
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129" s="12"/>
+      <c r="A129" s="11"/>
       <c r="B129" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130" s="12"/>
+      <c r="A130" s="11"/>
       <c r="B130" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131" s="12"/>
+      <c r="A131" s="11"/>
       <c r="B131" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132" s="12"/>
+      <c r="A132" s="11"/>
       <c r="B132" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A133" s="12"/>
+      <c r="A133" s="11"/>
       <c r="B133" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A134" s="12"/>
+      <c r="A134" s="11"/>
       <c r="B134" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A135" s="12"/>
+      <c r="A135" s="11"/>
       <c r="B135" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A136" s="12"/>
+      <c r="A136" s="11"/>
       <c r="B136" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A137" s="12"/>
+      <c r="A137" s="11"/>
       <c r="B137" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A138" s="12"/>
+      <c r="A138" s="11"/>
       <c r="B138" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A139" s="12"/>
+      <c r="A139" s="11"/>
       <c r="B139" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A140" s="12"/>
+      <c r="A140" s="11"/>
       <c r="B140" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="141" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="10" t="s">
+      <c r="A141" s="12" t="s">
         <v>18</v>
       </c>
       <c r="B141" s="1" t="s">
@@ -2931,73 +2966,73 @@
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A142" s="10"/>
+      <c r="A142" s="12"/>
       <c r="B142" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A143" s="10"/>
+      <c r="A143" s="12"/>
       <c r="B143" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A144" s="10"/>
+      <c r="A144" s="12"/>
       <c r="B144" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A145" s="10"/>
+      <c r="A145" s="12"/>
       <c r="B145" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A146" s="10"/>
+      <c r="A146" s="12"/>
       <c r="B146" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A147" s="10"/>
+      <c r="A147" s="12"/>
       <c r="B147" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A148" s="10"/>
+      <c r="A148" s="12"/>
       <c r="B148" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A149" s="10"/>
+      <c r="A149" s="12"/>
       <c r="B149" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A150" s="10"/>
+      <c r="A150" s="12"/>
       <c r="B150" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A151" s="10"/>
+      <c r="A151" s="12"/>
       <c r="B151" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A152" s="10"/>
+      <c r="A152" s="12"/>
       <c r="B152" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A153" s="10"/>
+      <c r="A153" s="12"/>
       <c r="B153" s="2" t="s">
         <v>25</v>
       </c>
@@ -3015,7 +3050,7 @@
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A156" s="12" t="s">
+      <c r="A156" s="11" t="s">
         <v>20</v>
       </c>
       <c r="B156" s="1" t="s">
@@ -3023,79 +3058,79 @@
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A157" s="12"/>
+      <c r="A157" s="11"/>
       <c r="B157" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A158" s="12"/>
+      <c r="A158" s="11"/>
       <c r="B158" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A159" s="12"/>
+      <c r="A159" s="11"/>
       <c r="B159" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A160" s="12"/>
+      <c r="A160" s="11"/>
       <c r="B160" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A161" s="12"/>
+      <c r="A161" s="11"/>
       <c r="B161" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A162" s="12"/>
+      <c r="A162" s="11"/>
       <c r="B162" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A163" s="12"/>
+      <c r="A163" s="11"/>
       <c r="B163" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A164" s="12"/>
+      <c r="A164" s="11"/>
       <c r="B164" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A165" s="12"/>
+      <c r="A165" s="11"/>
       <c r="B165" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A166" s="12"/>
+      <c r="A166" s="11"/>
       <c r="B166" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A167" s="12"/>
+      <c r="A167" s="11"/>
       <c r="B167" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A168" s="12"/>
+      <c r="A168" s="11"/>
       <c r="B168" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A169" s="11" t="s">
+      <c r="A169" s="13" t="s">
         <v>22</v>
       </c>
       <c r="B169" s="1" t="s">
@@ -3103,84 +3138,80 @@
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A170" s="11"/>
+      <c r="A170" s="13"/>
       <c r="B170" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A171" s="11"/>
+      <c r="A171" s="13"/>
       <c r="B171" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A172" s="11"/>
+      <c r="A172" s="13"/>
       <c r="B172" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A173" s="11"/>
+      <c r="A173" s="13"/>
       <c r="B173" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A174" s="11"/>
+      <c r="A174" s="13"/>
       <c r="B174" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A175" s="11"/>
+      <c r="A175" s="13"/>
       <c r="B175" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A176" s="11"/>
+      <c r="A176" s="13"/>
       <c r="B176" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A177" s="11"/>
+      <c r="A177" s="13"/>
       <c r="B177" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A178" s="11"/>
+      <c r="A178" s="13"/>
       <c r="B178" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A179" s="11"/>
+      <c r="A179" s="13"/>
       <c r="B179" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A180" s="11"/>
+      <c r="A180" s="13"/>
       <c r="B180" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A181" s="11"/>
+      <c r="A181" s="13"/>
       <c r="B181" s="2" t="s">
         <v>25</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A3:A15"/>
-    <mergeCell ref="A31:A43"/>
-    <mergeCell ref="A16:A28"/>
-    <mergeCell ref="A44:A56"/>
+  <mergeCells count="15">
+    <mergeCell ref="F3:I3"/>
     <mergeCell ref="A59:A71"/>
     <mergeCell ref="A169:A181"/>
     <mergeCell ref="A156:A168"/>
@@ -3190,6 +3221,11 @@
     <mergeCell ref="A128:A140"/>
     <mergeCell ref="A87:A99"/>
     <mergeCell ref="A141:A153"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:A15"/>
+    <mergeCell ref="A31:A43"/>
+    <mergeCell ref="A16:A28"/>
+    <mergeCell ref="A44:A56"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
